--- a/Oscars_2024.xlsx
+++ b/Oscars_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghamurthy/Desktop/DATA PROJECTS.nosync/Oscars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B888F3B-C9AD-8F48-8D57-D16ED68B560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248F819A-7D86-AB42-8D24-7FF6D7C9726A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15800" xr2:uid="{94515E56-7EB5-5442-B6EC-A8E0A0CC1C39}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="236">
-  <si>
-    <t>Category</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="214">
   <si>
     <t>Actor In A Leading Role</t>
   </si>
@@ -107,12 +104,6 @@
     <t>Writing (Original Screenplay)</t>
   </si>
   <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Film</t>
-  </si>
-  <si>
     <t>James Wilson</t>
   </si>
   <si>
@@ -455,147 +446,30 @@
     <t>Cord Jefferson</t>
   </si>
   <si>
-    <t>Greta Gerwig &amp; Noah Baumbach</t>
-  </si>
-  <si>
     <t>Tony McNamara</t>
   </si>
   <si>
     <t>David Hemingson</t>
   </si>
   <si>
-    <t>Bradley Cooper &amp; Josh Singer</t>
-  </si>
-  <si>
-    <t>Screenplay: Samy Burch; Story: Samy Burch &amp; Alex Mechanik</t>
-  </si>
-  <si>
     <t>Celine Song</t>
   </si>
   <si>
     <t>May December</t>
   </si>
   <si>
-    <t>Worldwide Box Office</t>
-  </si>
-  <si>
     <t>Spider-Man: Across the Spider-Verse</t>
   </si>
   <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Romance, Musical</t>
-  </si>
-  <si>
     <t>Drama</t>
   </si>
   <si>
-    <t>Comedy, Drama</t>
-  </si>
-  <si>
     <t>Thriller</t>
   </si>
   <si>
-    <t>Sports, Drama</t>
-  </si>
-  <si>
-    <t>Crime, Western</t>
-  </si>
-  <si>
-    <t>Crime, Thriller</t>
-  </si>
-  <si>
-    <t>Comedy, Sci-fi</t>
-  </si>
-  <si>
-    <t>Comedy, Fantasy</t>
-  </si>
-  <si>
-    <t>Drama, Musical</t>
-  </si>
-  <si>
-    <t>Fantasy, Adventure</t>
-  </si>
-  <si>
-    <t>Family, Romance</t>
-  </si>
-  <si>
-    <t>Comedy, Musical</t>
-  </si>
-  <si>
-    <t>Comedy, Action</t>
-  </si>
-  <si>
-    <t>Comedy, Horror</t>
-  </si>
-  <si>
-    <t>Action, War</t>
-  </si>
-  <si>
-    <t>Crime, War</t>
-  </si>
-  <si>
     <t>Documentary</t>
   </si>
   <si>
-    <t>Documentary, Thriller</t>
-  </si>
-  <si>
-    <t>Documentary, Drama</t>
-  </si>
-  <si>
-    <t>Documentary, War</t>
-  </si>
-  <si>
-    <t>Documentary, Short</t>
-  </si>
-  <si>
-    <t>Adventure, Drama</t>
-  </si>
-  <si>
-    <t>Drama, Narrative</t>
-  </si>
-  <si>
-    <t>Thriller, Adventure</t>
-  </si>
-  <si>
-    <t>Thriller, War</t>
-  </si>
-  <si>
-    <t>Action, Adventure</t>
-  </si>
-  <si>
-    <t>Romance, Drama</t>
-  </si>
-  <si>
-    <t>Animation, Short</t>
-  </si>
-  <si>
-    <t>Drama, Short</t>
-  </si>
-  <si>
-    <t>Sports, Thriller</t>
-  </si>
-  <si>
-    <t>Comedy, Adventure</t>
-  </si>
-  <si>
-    <t>Sci-Fi, Action</t>
-  </si>
-  <si>
-    <t>Comedy, Sci-Fi</t>
-  </si>
-  <si>
-    <t>Action, Thriller</t>
-  </si>
-  <si>
-    <t>Romance, Thriller</t>
-  </si>
-  <si>
-    <t>Rotten Tomatoes</t>
-  </si>
-  <si>
     <t>Sarah Greenwood, Katie Spencer</t>
   </si>
   <si>
@@ -747,6 +621,66 @@
   </si>
   <si>
     <t>Mark Ronson , Andrew Wyatt - I'm Just Ken</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Sci-Fi</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Greta Gerwig, Noah Baumbach</t>
+  </si>
+  <si>
+    <t>Bradley Cooper, Josh Singer</t>
+  </si>
+  <si>
+    <t>Samy Burch, Alex Mechanik</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>worldwide box office</t>
+  </si>
+  <si>
+    <t>rotten tomatoes</t>
   </si>
 </sst>
 </file>
@@ -1160,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F18E9F3-0711-904A-B8B5-D85ECD893407}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1176,36 +1110,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E2" s="7">
         <v>383532</v>
@@ -1216,34 +1150,36 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
       <c r="F3" s="6">
         <v>0.84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E4" s="7">
         <v>42246660</v>
@@ -1254,16 +1190,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E5" s="7">
         <v>957700200</v>
@@ -1274,16 +1210,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E6" s="7">
         <v>21983570</v>
@@ -1294,16 +1230,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="E7" s="7">
         <v>16056</v>
@@ -1314,16 +1250,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E8" s="7">
         <v>156874211</v>
@@ -1334,16 +1270,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E9" s="7">
         <v>31054565</v>
@@ -1354,16 +1290,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E10" s="7">
         <v>383532</v>
@@ -1374,16 +1310,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E11" s="7">
         <v>104571592</v>
@@ -1394,16 +1330,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E12" s="7">
         <v>21983570</v>
@@ -1414,16 +1350,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E13" s="7">
         <v>156874211</v>
@@ -1434,16 +1370,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E14" s="7">
         <v>957700200</v>
@@ -1454,16 +1390,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E15" s="7">
         <v>1445638421</v>
@@ -1474,16 +1410,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E16" s="7">
         <v>104571592</v>
@@ -1494,16 +1430,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E17" s="7">
         <v>957700200</v>
@@ -1514,16 +1450,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E18" s="7">
         <v>67519191</v>
@@ -1534,16 +1470,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E19" s="7">
         <v>1445638421</v>
@@ -1554,16 +1490,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="E20" s="7">
         <v>16056</v>
@@ -1574,16 +1510,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E21" s="7">
         <v>42246660</v>
@@ -1594,16 +1530,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="E22" s="7">
         <v>167533889</v>
@@ -1614,16 +1550,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E23" s="7">
         <v>496444308</v>
@@ -1634,34 +1570,36 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
       <c r="F24" s="6">
         <v>0.92</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E25" s="7">
         <v>756864</v>
@@ -1672,16 +1610,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="E26" s="7">
         <v>690897910</v>
@@ -1692,34 +1630,36 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
       <c r="F27" s="6">
         <v>0.82</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E28" s="7">
         <v>156874211</v>
@@ -1730,16 +1670,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E29" s="7">
         <v>383532</v>
@@ -1750,16 +1690,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E30" s="7">
         <v>957700200</v>
@@ -1770,16 +1710,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E31" s="7">
         <v>104571592</v>
@@ -1790,16 +1730,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E32" s="7">
         <v>1445638421</v>
@@ -1810,16 +1750,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E33" s="7">
         <v>156874211</v>
@@ -1830,16 +1770,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E34" s="7">
         <v>220901419</v>
@@ -1850,16 +1790,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E35" s="7">
         <v>957700200</v>
@@ -1870,16 +1810,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E36" s="7">
         <v>104571592</v>
@@ -1890,16 +1830,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E37" s="7">
         <v>31054565</v>
@@ -1910,16 +1850,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E38" s="7">
         <v>156874211</v>
@@ -1930,16 +1870,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E39" s="7">
         <v>957700200</v>
@@ -1950,16 +1890,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E40" s="7">
         <v>104571592</v>
@@ -1970,16 +1910,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="E41" s="7">
         <v>20107682</v>
@@ -1990,16 +1930,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E42" s="7">
         <v>44486</v>
@@ -2010,16 +1950,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E43" s="7">
         <v>118613</v>
@@ -2030,16 +1970,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="E44" s="7">
         <v>944906</v>
@@ -2050,34 +1990,36 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
       <c r="F45" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E46" s="7">
         <v>20555</v>
@@ -2088,96 +2030,106 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E52" s="7">
         <v>31054565</v>
@@ -2188,16 +2140,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E53" s="7">
         <v>42246660</v>
@@ -2208,16 +2160,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E54" s="7">
         <v>156874211</v>
@@ -2228,16 +2180,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E55" s="7">
         <v>957700200</v>
@@ -2248,16 +2200,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E56" s="7">
         <v>104571592</v>
@@ -2268,16 +2220,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="E57" s="7">
         <v>6603305</v>
@@ -2288,16 +2240,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E58" s="7">
         <v>19701506</v>
@@ -2308,16 +2260,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="E59" s="7">
         <v>1281</v>
@@ -2328,16 +2280,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E60" s="7">
         <v>3621669</v>
@@ -2348,16 +2300,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="E61" s="7">
         <v>20107682</v>
@@ -2368,16 +2320,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="E62" s="7">
         <v>6059809</v>
@@ -2388,16 +2340,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E63" s="7">
         <v>383532</v>
@@ -2408,16 +2360,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E64" s="7">
         <v>957700200</v>
@@ -2428,16 +2380,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E65" s="7">
         <v>104571592</v>
@@ -2448,16 +2400,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="E66" s="7">
         <v>1281</v>
@@ -2468,16 +2420,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E67" s="7">
         <v>21983570</v>
@@ -2488,16 +2440,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="E68" s="7">
         <v>383963057</v>
@@ -2508,16 +2460,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E69" s="7">
         <v>156874211</v>
@@ -2528,16 +2480,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E70" s="7">
         <v>957700200</v>
@@ -2548,16 +2500,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E71" s="7">
         <v>104571592</v>
@@ -2568,34 +2520,36 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
       <c r="F72" s="6">
         <v>0.69</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E73" s="7">
         <v>1445638421</v>
@@ -2606,34 +2560,36 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
       <c r="F74" s="6">
         <v>0.94</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E75" s="7">
         <v>156874211</v>
@@ -2644,16 +2600,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E76" s="7">
         <v>1445638421</v>
@@ -2664,16 +2620,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E77" s="7">
         <v>21983570</v>
@@ -2684,16 +2640,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E78" s="7">
         <v>31054565</v>
@@ -2704,16 +2660,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E79" s="7">
         <v>1445638421</v>
@@ -2724,16 +2680,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E80" s="7">
         <v>42246660</v>
@@ -2744,16 +2700,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E81" s="7">
         <v>156874211</v>
@@ -2764,16 +2720,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E82" s="7">
         <v>383532</v>
@@ -2784,16 +2740,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E83" s="7">
         <v>957700200</v>
@@ -2804,16 +2760,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E84" s="7">
         <v>28126646</v>
@@ -2824,16 +2780,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E85" s="7">
         <v>104571592</v>
@@ -2844,16 +2800,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="E86" s="7">
         <v>20107682</v>
@@ -2864,16 +2820,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E87" s="7">
         <v>1445638421</v>
@@ -2884,16 +2840,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="E88" s="7">
         <v>156874211</v>
@@ -2904,16 +2860,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E89" s="7">
         <v>220901419</v>
@@ -2924,16 +2880,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E90" s="7">
         <v>957700200</v>
@@ -2944,16 +2900,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E91" s="7">
         <v>104571592</v>
@@ -2964,176 +2920,196 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E92" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E93" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0</v>
+      </c>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E94" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0</v>
+      </c>
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E95" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0</v>
+      </c>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E96" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0</v>
+      </c>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E97" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E98" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0</v>
+      </c>
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E99" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0</v>
+      </c>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E100" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E101" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0</v>
+      </c>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E102" s="7">
         <v>104272136</v>
@@ -3144,16 +3120,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E103" s="7">
         <v>383532</v>
@@ -3164,16 +3140,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="E104" s="7">
         <v>567535383</v>
@@ -3184,16 +3160,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E105" s="7">
         <v>957700200</v>
@@ -3204,16 +3180,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="E106" s="7">
         <v>20107682</v>
@@ -3224,16 +3200,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E107" s="7">
         <v>104272136</v>
@@ -3244,16 +3220,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E108" s="7">
         <v>106722608</v>
@@ -3264,16 +3240,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="E109" s="7">
         <v>845555777</v>
@@ -3284,16 +3260,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="E110" s="7">
         <v>567535383</v>
@@ -3304,16 +3280,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E111" s="7">
         <v>220901419</v>
@@ -3324,16 +3300,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E112" s="7">
         <v>21983570</v>
@@ -3344,16 +3320,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E113" s="7">
         <v>1445638421</v>
@@ -3364,16 +3340,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E114" s="7">
         <v>957700200</v>
@@ -3384,16 +3360,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E115" s="7">
         <v>104571592</v>
@@ -3404,16 +3380,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="E116" s="7">
         <v>20107682</v>
@@ -3424,16 +3400,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E117" s="7">
         <v>31054565</v>
@@ -3444,16 +3420,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E118" s="7">
         <v>42246660</v>
@@ -3464,16 +3440,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E119" s="7">
         <v>383532</v>
@@ -3484,16 +3460,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="E120" s="7">
         <v>3696543</v>
@@ -3504,16 +3480,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E121" s="7">
         <v>28126646</v>

--- a/Oscars_2024.xlsx
+++ b/Oscars_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghamurthy/Desktop/DATA PROJECTS.nosync/Oscars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248F819A-7D86-AB42-8D24-7FF6D7C9726A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D288A3F9-91E6-A842-981A-5339839A0744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15800" xr2:uid="{94515E56-7EB5-5442-B6EC-A8E0A0CC1C39}"/>
   </bookViews>
@@ -554,9 +554,6 @@
     <t>David Hinojosa, Christine Vachon , Pamela Koffler</t>
   </si>
   <si>
-    <t>Ed Guiney, ,rew Lowe, Yorgos Lanthimos , Emma Stone</t>
-  </si>
-  <si>
     <t>James Price , Shona Heath, Zsuzsa Mihalek</t>
   </si>
   <si>
@@ -584,9 +581,6 @@
     <t>Nazrin Choudhury , Sara McFarlane</t>
   </si>
   <si>
-    <t>Wes ,erson , Steven Rales</t>
-  </si>
-  <si>
     <t>Ian Voigt, Erik Aadahl, Ethan Van der Ryn, Tom Ozanich , Dean Zupanic</t>
   </si>
   <si>
@@ -602,9 +596,6 @@
     <t>Tarn Willers , Johnnie Burn</t>
   </si>
   <si>
-    <t>Jay Cooper, Ian Comley, ,rew Roberts , Neil Corbould</t>
-  </si>
-  <si>
     <t>Takashi Yamazaki, Kiyoko Shibuya, Masaki Takahashi , Tatsuji Nojima</t>
   </si>
   <si>
@@ -681,6 +672,15 @@
   </si>
   <si>
     <t>rotten tomatoes</t>
+  </si>
+  <si>
+    <t>Wes Anderson , Steven Rales</t>
+  </si>
+  <si>
+    <t>Ed Guiney, Andrew Lowe, Yorgos Lanthimos , Emma Stone</t>
+  </si>
+  <si>
+    <t>Jay Cooper, Ian Comley, Andrew Roberts , Neil Corbould</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F18E9F3-0711-904A-B8B5-D85ECD893407}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1110,22 +1110,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1139,7 +1139,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E2" s="7">
         <v>383532</v>
@@ -1179,7 +1179,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E4" s="7">
         <v>42246660</v>
@@ -1219,7 +1219,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E6" s="7">
         <v>21983570</v>
@@ -1239,7 +1239,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E7" s="7">
         <v>16056</v>
@@ -1259,7 +1259,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E8" s="7">
         <v>156874211</v>
@@ -1299,7 +1299,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E10" s="7">
         <v>383532</v>
@@ -1319,7 +1319,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E11" s="7">
         <v>104571592</v>
@@ -1339,7 +1339,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E12" s="7">
         <v>21983570</v>
@@ -1359,7 +1359,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E13" s="7">
         <v>156874211</v>
@@ -1399,7 +1399,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E15" s="7">
         <v>1445638421</v>
@@ -1419,7 +1419,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E16" s="7">
         <v>104571592</v>
@@ -1479,7 +1479,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E19" s="7">
         <v>1445638421</v>
@@ -1499,7 +1499,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E20" s="7">
         <v>16056</v>
@@ -1519,7 +1519,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E21" s="7">
         <v>42246660</v>
@@ -1539,7 +1539,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E22" s="7">
         <v>167533889</v>
@@ -1559,7 +1559,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E23" s="7">
         <v>496444308</v>
@@ -1579,7 +1579,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E25" s="7">
         <v>756864</v>
@@ -1619,7 +1619,7 @@
         <v>139</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E26" s="7">
         <v>690897910</v>
@@ -1639,7 +1639,7 @@
         <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E28" s="7">
         <v>156874211</v>
@@ -1679,7 +1679,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E29" s="7">
         <v>383532</v>
@@ -1719,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E31" s="7">
         <v>104571592</v>
@@ -1739,7 +1739,7 @@
         <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E32" s="7">
         <v>1445638421</v>
@@ -1759,7 +1759,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E33" s="7">
         <v>156874211</v>
@@ -1779,7 +1779,7 @@
         <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E34" s="7">
         <v>220901419</v>
@@ -1819,7 +1819,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E36" s="7">
         <v>104571592</v>
@@ -1859,7 +1859,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E38" s="7">
         <v>156874211</v>
@@ -1899,7 +1899,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E40" s="7">
         <v>104571592</v>
@@ -1919,7 +1919,7 @@
         <v>76</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E41" s="7">
         <v>20107682</v>
@@ -2019,7 +2019,7 @@
         <v>82</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E46" s="7">
         <v>20555</v>
@@ -2149,7 +2149,7 @@
         <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E53" s="7">
         <v>42246660</v>
@@ -2169,7 +2169,7 @@
         <v>35</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E54" s="7">
         <v>156874211</v>
@@ -2209,7 +2209,7 @@
         <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E56" s="7">
         <v>104571592</v>
@@ -2229,7 +2229,7 @@
         <v>99</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E57" s="7">
         <v>6603305</v>
@@ -2269,7 +2269,7 @@
         <v>101</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E59" s="7">
         <v>1281</v>
@@ -2309,7 +2309,7 @@
         <v>76</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E61" s="7">
         <v>20107682</v>
@@ -2329,7 +2329,7 @@
         <v>105</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E62" s="7">
         <v>6059809</v>
@@ -2349,7 +2349,7 @@
         <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E63" s="7">
         <v>383532</v>
@@ -2389,7 +2389,7 @@
         <v>40</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E65" s="7">
         <v>104571592</v>
@@ -2449,7 +2449,7 @@
         <v>111</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E68" s="7">
         <v>383963057</v>
@@ -2469,7 +2469,7 @@
         <v>35</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E69" s="7">
         <v>156874211</v>
@@ -2509,7 +2509,7 @@
         <v>40</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E71" s="7">
         <v>104571592</v>
@@ -2543,13 +2543,13 @@
         <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E73" s="7">
         <v>1445638421</v>
@@ -2589,7 +2589,7 @@
         <v>35</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E75" s="7">
         <v>156874211</v>
@@ -2609,7 +2609,7 @@
         <v>46</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E76" s="7">
         <v>1445638421</v>
@@ -2669,7 +2669,7 @@
         <v>46</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E79" s="7">
         <v>1445638421</v>
@@ -2689,7 +2689,7 @@
         <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E80" s="7">
         <v>42246660</v>
@@ -2709,7 +2709,7 @@
         <v>35</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E81" s="7">
         <v>156874211</v>
@@ -2729,7 +2729,7 @@
         <v>23</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E82" s="7">
         <v>383532</v>
@@ -2769,7 +2769,7 @@
         <v>118</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E84" s="7">
         <v>28126646</v>
@@ -2783,13 +2783,13 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E85" s="7">
         <v>104571592</v>
@@ -2809,7 +2809,7 @@
         <v>76</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E86" s="7">
         <v>20107682</v>
@@ -2829,7 +2829,7 @@
         <v>46</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E87" s="7">
         <v>1445638421</v>
@@ -2849,7 +2849,7 @@
         <v>35</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E88" s="7">
         <v>156874211</v>
@@ -2869,7 +2869,7 @@
         <v>70</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E89" s="7">
         <v>220901419</v>
@@ -2903,13 +2903,13 @@
         <v>14</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E91" s="7">
         <v>104571592</v>
@@ -2923,7 +2923,7 @@
         <v>15</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>120</v>
@@ -2941,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>121</v>
@@ -2965,7 +2965,7 @@
         <v>122</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E94" s="7">
         <v>0</v>
@@ -2977,13 +2977,13 @@
         <v>15</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E95" s="7">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>15</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E96" s="7">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>16</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>125</v>
@@ -3031,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>126</v>
@@ -3049,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>127</v>
@@ -3067,7 +3067,7 @@
         <v>16</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>128</v>
@@ -3085,13 +3085,13 @@
         <v>16</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E101" s="7">
         <v>0</v>
@@ -3103,13 +3103,13 @@
         <v>17</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E102" s="7">
         <v>104272136</v>
@@ -3123,13 +3123,13 @@
         <v>17</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E103" s="7">
         <v>383532</v>
@@ -3143,7 +3143,7 @@
         <v>17</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>130</v>
@@ -3163,7 +3163,7 @@
         <v>17</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>29</v>
@@ -3183,13 +3183,13 @@
         <v>17</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E106" s="7">
         <v>20107682</v>
@@ -3203,13 +3203,13 @@
         <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E107" s="7">
         <v>104272136</v>
@@ -3223,13 +3223,13 @@
         <v>18</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E108" s="7">
         <v>106722608</v>
@@ -3243,13 +3243,13 @@
         <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E109" s="7">
         <v>845555777</v>
@@ -3263,7 +3263,7 @@
         <v>18</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>130</v>
@@ -3283,13 +3283,13 @@
         <v>18</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E111" s="7">
         <v>220901419</v>
@@ -3309,7 +3309,7 @@
         <v>31</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E112" s="7">
         <v>21983570</v>
@@ -3323,13 +3323,13 @@
         <v>19</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E113" s="7">
         <v>1445638421</v>
@@ -3369,7 +3369,7 @@
         <v>40</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E115" s="7">
         <v>104571592</v>
@@ -3389,7 +3389,7 @@
         <v>76</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E116" s="7">
         <v>20107682</v>
@@ -3403,7 +3403,7 @@
         <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>37</v>
@@ -3429,7 +3429,7 @@
         <v>27</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E118" s="7">
         <v>42246660</v>
@@ -3443,13 +3443,13 @@
         <v>20</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E119" s="7">
         <v>383532</v>
@@ -3463,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>138</v>
@@ -3489,7 +3489,7 @@
         <v>118</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E121" s="7">
         <v>28126646</v>
